--- a/Question_Set2/Programming skills/Apex (Salesforce).xlsx
+++ b/Question_Set2/Programming skills/Apex (Salesforce).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which one of the following trigger events should you use to update the original object using an update DML operation?', 'ques_type': 2, 'options': ['afterupdate', 'beforeupdate', 'afterundelete', 'beforedelete'], 'score': 'afterupdate'}, {'title': 'You are a Salesforce developer, and you want to create a master-detail relationship. However, you find that the custom object already has data in it. How should you create the master-detail relationship?', 'ques_type': 2, 'options': ['Create the self relationship first', 'Create the hierarchical relationship first', 'Create the lookup relationship first', 'Create the many-to-many relationship first'], 'score': 'Create the lookup relationship first'}, {'title': "You want to add a new employee's name to the database. Which of the following SOQL and SOSL queries should you use to achieve this?", 'ques_type': 2, 'options': ['return new Employeedatabase(EmpName = \'Alfred\')\nEmployeedatabase account = [SELECT Id FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT 1]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT 0]\n', 'select new Employeedatabase(EmpName = \'Alfred\')\nEmployeedatabase acc = [WHERE Id FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT Null]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT Null].EmpName\n', 'select new Employeedatabase(EmpName = \'Alfred\')\nEmployeedatabase acc = [SELECT Id FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT 0]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT 0].EmpName\n', 'insert new Employeedatabase(EmpName = \'Alfred\')\nEmployeedatabase acc = [SELECT Id FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT 1]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = \'Alfred\' LIMIT 1].EmpName\n'], 'score': "insert new Employeedatabase(EmpName = 'Alfred')\nEmployeedatabase acc = [SELECT Id FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 1]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 1].EmpName"}, {'title': 'You have a requirement to add temporary fields to your program. You have to choose the correct Apex design pattern that can satisfy the following conditions:The temporary fields will be used for processing certain data, but there is no requirement to add them to sObject.The program should be able to change the behavior without breaking the classes by switching between behaviors.Which Apex design patterns should you apply?', 'ques_type': 2, 'options': ['The Decorator pattern and the Strategy pattern', 'The Decorator pattern and the Facade pattern ', 'The Composite Design pattern and the Facade pattern ', 'The Composite Design pattern and the Bulk State Transition design pattern'], 'score': 'The Decorator pattern and the Strategy pattern'}]</t>
+    <t>questions = [
+    {
+        "title": "Which one of the following trigger events should you use to update the original object using an update DML operation?",
+        "ques_type": 2,
+        "options": [
+            "afterupdate",
+            "beforeupdate",
+            "afterundelete",
+            "beforedelete"
+        ],
+        "score": "afterupdate"
+    },
+    {
+        "title": "You are a Salesforce developer, and you want to create a master-detail relationship. However, you find that the custom object already has data in it. How should you create the master-detail relationship?",
+        "ques_type": 2,
+        "options": [
+            "Create the self relationship first",
+            "Create the hierarchical relationship first",
+            "Create the lookup relationship first",
+            "Create the many-to-many relationship first"
+        ],
+        "score": "Create the lookup relationship first"
+    },
+    {
+        "title": "You want to add a new employee's name to the database. Which of the following SOQL and SOSL queries should you use to achieve this?",
+        "ques_type": 2,
+        "options": [
+            "return new Employeedatabase(EmpName = 'Alfred')\nEmployeedatabase account = [SELECT Id FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 1]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 0]\n",
+            "select new Employeedatabase(EmpName = 'Alfred')\nEmployeedatabase acc = [WHERE Id FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT Null]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT Null].EmpName\n",
+            "select new Employeedatabase(EmpName = 'Alfred')\nEmployeedatabase acc = [SELECT Id FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 0]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 0].EmpName\n",
+            "insert new Employeedatabase(EmpName = 'Alfred')\nEmployeedatabase acc = [SELECT Id FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 1]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 1].EmpName\n"
+        ],
+        "score": "insert new Employeedatabase(EmpName = 'Alfred')\nEmployeedatabase acc = [SELECT Id FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 1]\nString name = [SELECT Id, EmpName FROM Employeedatabase WHERE EmpName = 'Alfred' LIMIT 1].EmpName"
+    },
+    {
+        "title": "You have a requirement to add temporary fields to your program. You have to choose the correct Apex design pattern that can satisfy the following conditions:The temporary fields will be used for processing certain data, but there is no requirement to add them to sObject.The program should be able to change the behavior without breaking the classes by switching between behaviors.Which Apex design patterns should you apply?",
+        "ques_type": 2,
+        "options": [
+            "The Decorator pattern and the Strategy pattern",
+            "The Decorator pattern and the Facade pattern ",
+            "The Composite Design pattern and the Facade pattern ",
+            "The Composite Design pattern and the Bulk State Transition design pattern"
+        ],
+        "score": "The Decorator pattern and the Strategy pattern"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
